--- a/newEnquetCNL_Sat Jun 08 2024.xlsx
+++ b/newEnquetCNL_Sat Jun 08 2024.xlsx
@@ -539,65 +539,52 @@
       </c>
     </row>
     <row r="10" ht="18.75" customHeight="1">
-      <c r="A10" s="8" t="str">
-        <v>0814/2017</v>
+      <c r="A10" s="8">
+        <v>1</v>
+      </c>
+      <c r="B10" s="8" t="str">
+        <v>BENAOUN</v>
       </c>
     </row>
     <row r="11" ht="18.75" customHeight="1">
-      <c r="A11" s="8" t="str">
-        <v>2018/0898</v>
+      <c r="A11" s="8">
+        <v>2</v>
+      </c>
+      <c r="B11" s="8" t="str">
+        <v>BEKKARI</v>
       </c>
     </row>
     <row r="12" ht="18.75" customHeight="1">
-      <c r="A12" s="8" t="str">
-        <v>2018/1329</v>
+      <c r="A12" s="8">
+        <v>3</v>
+      </c>
+      <c r="B12" s="8" t="str">
+        <v>BELMESMAR</v>
       </c>
     </row>
     <row r="13" ht="18.75" customHeight="1">
-      <c r="A13" s="8" t="str">
-        <v>2018/1266</v>
+      <c r="A13" s="8">
+        <v>4</v>
+      </c>
+      <c r="B13" s="8" t="str">
+        <v>BAHDI</v>
       </c>
     </row>
     <row r="14" ht="18.75" customHeight="1">
-      <c r="A14" s="8" t="str">
-        <v>2018/1009</v>
-      </c>
-    </row>
-    <row r="15" ht="18.75" customHeight="1">
-      <c r="A15" s="8" t="str">
-        <v>2011/0092</v>
-      </c>
-    </row>
-    <row r="16" ht="18.75" customHeight="1">
-      <c r="A16" s="8" t="str">
-        <v>2010/0025</v>
-      </c>
-    </row>
-    <row r="17" ht="18.75" customHeight="1">
-      <c r="A17" s="8" t="str">
-        <v>2018/1009</v>
-      </c>
-    </row>
-    <row r="18" ht="18.75" customHeight="1">
-      <c r="A18" s="8" t="str">
-        <v>2018/1266</v>
-      </c>
-    </row>
-    <row r="19" ht="18.75" customHeight="1">
-      <c r="A19" s="8" t="str">
-        <v>2018/1329</v>
-      </c>
-    </row>
-    <row r="20" ht="18.75" customHeight="1">
-      <c r="A20" s="8" t="str">
-        <v>2018/0898</v>
-      </c>
-    </row>
-    <row r="21" ht="18.75" customHeight="1">
-      <c r="A21" s="8" t="str">
-        <v>0814/2017</v>
-      </c>
-    </row>
+      <c r="A14" s="8">
+        <v>5</v>
+      </c>
+      <c r="B14" s="8" t="str">
+        <v>MEZZAR</v>
+      </c>
+    </row>
+    <row r="15" ht="18.75" customHeight="1"/>
+    <row r="16" ht="18.75" customHeight="1"/>
+    <row r="17" ht="18.75" customHeight="1"/>
+    <row r="18" ht="18.75" customHeight="1"/>
+    <row r="19" ht="18.75" customHeight="1"/>
+    <row r="20" ht="18.75" customHeight="1"/>
+    <row r="21" ht="18.75" customHeight="1"/>
     <row r="22" ht="18.75" customHeight="1"/>
     <row r="23" ht="18.75" customHeight="1"/>
     <row r="24" ht="18.75" customHeight="1"/>
